--- a/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_15.xlsx
+++ b/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Calculated_weighted_GPP</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Calculated_ecosystem_GPP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Observed_GPP</t>
         </is>
       </c>
@@ -478,215 +488,539 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/d21bc1a06167e52cd0028a13991ceb41-99d75306e430a93eef97915736054dd1:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/7ef3128e45f17fa28b302500429179af-dbc988edea79fc9c78f60301a959186e:getPixels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8fc83bd978ad3a4ce058a19d2ead8601-8024d2c577b0026cd318cf98527e7c20:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/6fb035940a366eadb408e637dee36809-20cbc33eb122c9f5d6a524903d3ed7bc:getPixels</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>46.25468875410116</v>
+        <v>25.70186782904678</v>
       </c>
       <c r="F2" t="n">
-        <v>32.40337414373436</v>
+        <v>24.05355619531599</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.04500380772433</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.44751630746248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020-11-01</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPP_2020_11_01</t>
+          <t>GPP_2020_10_16</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4d803558656069254e8c3a4f433061b8-6862843057869e82b7c4e390ae1e327c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4429735f024738a858a7e075cc67f1c7-bfb00045b4d7f1c928fe67bc050a57bd:getPixels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/217e279332848cf9ca067261efa5d00f-7d9403eda3c4152274cdb7af4e4bbc97:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4e87fa6d9347cec8401aa5aafb303903-778196ce4183902656fde08e8e89ed5b:getPixels</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.70171261831722</v>
+        <v>20.55419791056056</v>
       </c>
       <c r="F3" t="n">
-        <v>22.61805108157681</v>
+        <v>19.24741017685071</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21.25533885352042</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.95585783627189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-11-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GPP_2020_12_01</t>
+          <t>GPP_2020_11_01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a2735e3e042129bf250514c68b3d7191-8ca14b420e10d1c5ea4a242465aff22a:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4904a2f96c39359192620a5ba408e310-e12e9046831b9229410091fd9ac83147:getPixels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a0c4c120ec1f38068c73690c8ab79a4a-d258c67638a1c0f60d6f94abb0ac5fff:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ba4032ff21b26511935564f205d5f781-dd11d7e600815ea89de06e6509fe2315:getPixels</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.84740849807767</v>
+        <v>13.89793598855666</v>
       </c>
       <c r="F4" t="n">
-        <v>23.1830198229477</v>
+        <v>13.57330956872647</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.98445276454843</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.961511320410443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>2020-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GPP_2021_01_01</t>
+          <t>GPP_2020_11_16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/b6bf9557403dc63a7501571ef6c05d95-c5220dc8dc9275bfe1ba59d7a9237fe6:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8c75e9a8198df85278de5bbe6d60d7fb-d47c016cd04010d7605db1b2417057a3:getPixels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c7202dddee51534376695378c7fc1b12-cedc38e191b316a1bd87d434699c5aed:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c5cd4c236475f86fff220263b7eacff0-312d6bf897745d260ca57e762950d4fc:getPixels</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.99887494061262</v>
+        <v>10.63439913622694</v>
       </c>
       <c r="F5" t="n">
-        <v>12.27444616209607</v>
+        <v>10.61935241425187</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.67746462807943</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13.65653976116636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GPP_2021_02_01</t>
+          <t>GPP_2020_12_01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/049bd5dfdeed83eb0ddc6172af7a576a-863a14469bcc52b2dd60c1445ef486cf:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4f0d8f8cc13e763d3b177a523eccd6f1-c6011368ffea9276cb07f9e3430cd697:getPixels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f7a817f9179a01ac913f6068506bf6fb-e4a3cd8aa57df0f023d0207791c360be:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4509854d19396ad26d7d61a61f6e4f80-e940a8ce83b26908f304bd8ecb061824:getPixels</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.5279571841239</v>
+        <v>5.38082891238293</v>
       </c>
       <c r="F6" t="n">
-        <v>10.74793721056454</v>
+        <v>5.42873957699155</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.425165367253974</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.14605175272326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GPP_2021_03_01</t>
+          <t>GPP_2020_12_16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/56ac758b3198a237d043e10b347c7206-eaf8a15c51495401e8e9bef29a0d15f4:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a6dab5655b3ff6373e015347f8b14956-4dde9688433958fc7985d001a6068b4e:getPixels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c32a7b521897b9e40e191428ff2d2b66-0fb625fe80dd4614fdbe65cd2b615a2c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0fb7c86380aa71abf38f1040be012f17-465227482a195d1a11042191814ba5e5:getPixels</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80.18226742989285</v>
+        <v>5.40580771957837</v>
       </c>
       <c r="F7" t="n">
-        <v>75.96131308552776</v>
+        <v>5.400828562698408</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.411997366250999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.03696807022445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-01-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GPP_2021_04_01</t>
+          <t>GPP_2021_01_01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3d1d543c62b4c1d078f712f7d0514e58-78e969ccb56bbae5255b4c21ef14ccb4:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/99b0e43e61434bb03f231b2ab2959248-c3d6fe74990e037149e2804461200c31:getPixels</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/15716d5e2f4229f03457c22729c36cfd-c2231fe83187ffab1c76676fd8551ff3:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3c1d5c3a19adfbbaf7639a73e16512c6-706ec66a3fb5ac08c1f146544a07d09d:getPixels</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>187.3246214864919</v>
+        <v>7.229974825982482</v>
       </c>
       <c r="F8" t="n">
-        <v>186.8941833202429</v>
+        <v>7.357178708052734</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.514037496689797</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.91539158183507</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>2021-01-16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GPP_2021_01_16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/51fb937bdf572ff15044095575f6460b-5e2e8fb4394510c41dfcefd019c909dc:getPixels</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bd5ebb660b8068d44ac8d1e6d6df838a-2d92b837975106faced2663e8dff74fb:getPixels</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7.107958381327647</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.010906823017844</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.359054580261004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GPP_2021_02_01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/1cc8484298a7e1a0ff1212ba9617fa07-2eb6582dbbb60801ed2525f0cc5a60c3:getPixels</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/292de7155bcb7e226e2722dd877cdc76-cff6d9cd0b3b4441903aab57fc10f57b:getPixels</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3.288515494137351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021-02-16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GPP_2021_02_16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/37b78426eb081f6769b7ef06222a8803-12ceb24be473b27781ed37359f0db3c3:getPixels</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/122c5c3cbc6ae24c470ffe5ce87f7d42-a46b4358f156a0d6703abdeaa5bc4b9b:getPixels</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>12.28988073095525</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.45942171642719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GPP_2021_03_01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8d96c709b2a2b772d558bd4a722f327c-7528b45b6b1ce3144194d0a79aa56a06:getPixels</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a7373724611e670f14445924da089c4c-d76368af6ea31055becbc55a5c9c0e14:getPixels</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>25.86391159071334</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>42.94406055738744</v>
+      </c>
+      <c r="H12" t="n">
+        <v>22.00963974454325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GPP_2021_03_16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/784af13b4fe409a4028432b2b640f021-9d72b2630b5e014a2bf116bbe5e4bcf1:getPixels</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/5147454be98294ad12212d91fcee9716-78cfe3cb8ceb8d3e93d4d16518c4ba57:getPixels</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>51.28753962957641</v>
+      </c>
+      <c r="F13" t="n">
+        <v>44.44073755038067</v>
+      </c>
+      <c r="G13" t="n">
+        <v>79.4058480849442</v>
+      </c>
+      <c r="H13" t="n">
+        <v>53.95167334098452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GPP_2021_04_01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/cb2a8c5ce41e96fa5c67627dcb1664f0-d1b18ab398d77656a3ff047cf1757851:getPixels</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/854980a2dd3a85108c02e73f7ac2e3bf-cac1b4d1efe66a8a71a8b3ed46a4f92a:getPixels</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>90.28913940433047</v>
+      </c>
+      <c r="F14" t="n">
+        <v>75.4214437583836</v>
+      </c>
+      <c r="G14" t="n">
+        <v>138.4664414868795</v>
+      </c>
+      <c r="H14" t="n">
+        <v>85.87387599684602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2021-04-16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GPP_2021_04_16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ec4009a1b6a2a49c4e6b74e722b7bbe9-b48eb50fc960cc819bf113d6e7457704:getPixels</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3e172364029a919a4fe799c0c967eed4-2e17d43648f280d3455521c6e25cfced:getPixels</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>77.73492599169826</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>150.6175553977369</v>
+      </c>
+      <c r="H15" t="n">
+        <v>101.0203073233969</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>2021-05-01</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>GPP_2021_05_01</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/9a09466af9acd1b59c2fdcd012c3f7b3-16509011d7398b8b2c3d115014301519:getPixels</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a7947e105b998566eb68c5b65bc447fa-6322e8ffb67c7f9fea4dd20b819a3736:getPixels</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>252.3996971010389</v>
-      </c>
-      <c r="F9" t="n">
-        <v>197.2518484257928</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0e26ed75bb5af84713504dc2895faf80-f67725604b83a50092a751e5c9795c2c:getPixels</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/16efda5a10f67869ede0c36e9441be0c-ab22c52a49f05e9afdaa6137f02c558c:getPixels</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>132.9675890457139</v>
+      </c>
+      <c r="F16" t="n">
+        <v>111.0772071640581</v>
+      </c>
+      <c r="G16" t="n">
+        <v>162.7555926792708</v>
+      </c>
+      <c r="H16" t="n">
+        <v>97.93238941378688</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2021-05-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GPP_2021_05_16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0aba2e5cfd7dc2d29df156d91638c372-59a16806462c7e4523d8338fa3fae395:getPixels</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dd40f087efcdf62babc7f74fd327af4f-bcc672318059850af281c56d32a8b539:getPixels</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>115.2701052904261</v>
+      </c>
+      <c r="F17" t="n">
+        <v>102.9207144433341</v>
+      </c>
+      <c r="G17" t="n">
+        <v>116.0488622175944</v>
+      </c>
+      <c r="H17" t="n">
+        <v>99.31945901200592</v>
       </c>
     </row>
   </sheetData>

--- a/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_15.xlsx
+++ b/e_shape_linux/Output/Maps_output/DNP_2020_2021_v2_Maps_15.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/7ef3128e45f17fa28b302500429179af-dbc988edea79fc9c78f60301a959186e:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/50cb1533082530d1544625ecf03c68f3-f4cc523802ec4142ec1f543b675d0b32:getPixels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/6fb035940a366eadb408e637dee36809-20cbc33eb122c9f5d6a524903d3ed7bc:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8ea742841acc5e22fa3a05d0153886dc-0ea5ac1ceeb50cc1f70c4629c8b8c429:getPixels</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -506,7 +506,7 @@
         <v>27.04500380772433</v>
       </c>
       <c r="H2" t="n">
-        <v>15.44751630746248</v>
+        <v>15.44751630746247</v>
       </c>
     </row>
     <row r="3">
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4429735f024738a858a7e075cc67f1c7-bfb00045b4d7f1c928fe67bc050a57bd:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8d19e1b789543caf3cbdc29a75091917-0da0d8837d3d8c12d6957c3601cdf78f:getPixels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4e87fa6d9347cec8401aa5aafb303903-778196ce4183902656fde08e8e89ed5b:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/6b6763405e8a00d2c362c15a4a13e79d-b21e1e0d0b2feb88bb13f994a9859683:getPixels</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.55419791056056</v>
+        <v>20.55419791056057</v>
       </c>
       <c r="F3" t="n">
         <v>19.24741017685071</v>
       </c>
       <c r="G3" t="n">
-        <v>21.25533885352042</v>
+        <v>21.25533885352043</v>
       </c>
       <c r="H3" t="n">
         <v>16.95585783627189</v>
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4904a2f96c39359192620a5ba408e310-e12e9046831b9229410091fd9ac83147:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a2ac880f7dc89aca2a016cbc93395e97-ef26287a90fad127bb26c26168a4344b:getPixels</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ba4032ff21b26511935564f205d5f781-dd11d7e600815ea89de06e6509fe2315:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/02e644ecb1f135c0549f5d14fb14d92d-a4e4cf1d8086bfba0c0586f71fda7974:getPixels</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -590,12 +590,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8c75e9a8198df85278de5bbe6d60d7fb-d47c016cd04010d7605db1b2417057a3:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8eea3898e789158ffa5c7abe310c2cfb-4b49d19dc1a248934e2ba5a851545b5a:getPixels</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c5cd4c236475f86fff220263b7eacff0-312d6bf897745d260ca57e762950d4fc:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/98225fac58ba1210145e100a4b6ff17a-e5c62099f6ca4f447406b0828b66cb1e:getPixels</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -605,7 +605,7 @@
         <v>10.61935241425187</v>
       </c>
       <c r="G5" t="n">
-        <v>10.67746462807943</v>
+        <v>10.67746462807944</v>
       </c>
       <c r="H5" t="n">
         <v>13.65653976116636</v>
@@ -624,19 +624,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4f0d8f8cc13e763d3b177a523eccd6f1-c6011368ffea9276cb07f9e3430cd697:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f45ed6634391f4269f2d041c6904f2f5-539cba1d6af8297c55cc9fd01af57eb2:getPixels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/4509854d19396ad26d7d61a61f6e4f80-e940a8ce83b26908f304bd8ecb061824:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a98597be09eaed660c8d407829ead8a2-67fe11e7f00804fcec525cb52db60cb4:getPixels</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.38082891238293</v>
+        <v>5.380828912382931</v>
       </c>
       <c r="F6" t="n">
-        <v>5.42873957699155</v>
+        <v>5.428739576991551</v>
       </c>
       <c r="G6" t="n">
         <v>5.425165367253974</v>
@@ -658,19 +658,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a6dab5655b3ff6373e015347f8b14956-4dde9688433958fc7985d001a6068b4e:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/10811188d93f667b94f0fd07be499b01-7567526740d5f14b84e3fd10be9a4db3:getPixels</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0fb7c86380aa71abf38f1040be012f17-465227482a195d1a11042191814ba5e5:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/11224c6e425c5d0c4a0f59ce3102bd47-e552f4815dc047d887c611341c34e02f:getPixels</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5.40580771957837</v>
       </c>
       <c r="F7" t="n">
-        <v>5.400828562698408</v>
+        <v>5.400828562698409</v>
       </c>
       <c r="G7" t="n">
         <v>5.411997366250999</v>
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/99b0e43e61434bb03f231b2ab2959248-c3d6fe74990e037149e2804461200c31:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/d2f2811edc16e56fa3e71acf90fd19d9-20270e3689bcc47262374b5e840d1a93:getPixels</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3c1d5c3a19adfbbaf7639a73e16512c6-706ec66a3fb5ac08c1f146544a07d09d:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f1d5f424cc1b83a381f4cfa44f6747fe-1be98991778476f4ab368206d11b76c5:getPixels</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.229974825982482</v>
+        <v>7.229974825982484</v>
       </c>
       <c r="F8" t="n">
-        <v>7.357178708052734</v>
+        <v>7.357178708052736</v>
       </c>
       <c r="G8" t="n">
-        <v>7.514037496689797</v>
+        <v>7.5140374966898</v>
       </c>
       <c r="H8" t="n">
         <v>6.91539158183507</v>
@@ -726,12 +726,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/51fb937bdf572ff15044095575f6460b-5e2e8fb4394510c41dfcefd019c909dc:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0071e07d88328f5485759a94344df394-ffedce2b31f0036000a170249acdac84:getPixels</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/bd5ebb660b8068d44ac8d1e6d6df838a-2d92b837975106faced2663e8dff74fb:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/aa121b4691601d8850ca2d3cfef62c5f-2666ae96fc2b0f9fc5e452c2081bac59:getPixels</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.010906823017844</v>
+        <v>8.010906823017846</v>
       </c>
       <c r="H9" t="n">
         <v>5.359054580261004</v>
@@ -762,12 +762,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/1cc8484298a7e1a0ff1212ba9617fa07-2eb6582dbbb60801ed2525f0cc5a60c3:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f0424da231ef8d882d9a5a59927ebee8-7dbda0c98638ee8bbb2451b07a100a74:getPixels</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/292de7155bcb7e226e2722dd877cdc76-cff6d9cd0b3b4441903aab57fc10f57b:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/b841c9042f9a4bb06da19ea58d1441d7-d6527ebd5413e0d9e2ed01a71e7a1556:getPixels</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -794,12 +794,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/37b78426eb081f6769b7ef06222a8803-12ceb24be473b27781ed37359f0db3c3:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3768e61a6b641b5d08e54d9101c74305-bddc28a5d7fed11c78956ac35c5422f9:getPixels</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/122c5c3cbc6ae24c470ffe5ce87f7d42-a46b4358f156a0d6703abdeaa5bc4b9b:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/c1fb69e02fad2b9d163410dcf17394f5-bafcf77fa2f6b93d97aeacfe66f45712:getPixels</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -828,12 +828,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/8d96c709b2a2b772d558bd4a722f327c-7528b45b6b1ce3144194d0a79aa56a06:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/eb25af873d91b38bbd28d3314f4398a2-83be519911278af9f8785d4fab8f41e1:getPixels</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a7373724611e670f14445924da089c4c-d76368af6ea31055becbc55a5c9c0e14:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ec67499c68d578a5acb11958a09b1842-ac4ee92ac74aa6f6b9738512186926a2:getPixels</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>42.94406055738744</v>
+        <v>42.94406055738745</v>
       </c>
       <c r="H12" t="n">
-        <v>22.00963974454325</v>
+        <v>22.00963974454326</v>
       </c>
     </row>
     <row r="13">
@@ -864,16 +864,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/784af13b4fe409a4028432b2b640f021-9d72b2630b5e014a2bf116bbe5e4bcf1:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/a22e58fa842b0e8e456ca591c3ea6705-2a6b762dfcf2dc1e5a26a8d24156dbb1:getPixels</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/5147454be98294ad12212d91fcee9716-78cfe3cb8ceb8d3e93d4d16518c4ba57:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/b768e7a775315d41c6c0548ba340307f-3b3728a5bbbba2547f78ff954c10df2c:getPixels</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>51.28753962957641</v>
+        <v>51.28753962957643</v>
       </c>
       <c r="F13" t="n">
         <v>44.44073755038067</v>
@@ -882,7 +882,7 @@
         <v>79.4058480849442</v>
       </c>
       <c r="H13" t="n">
-        <v>53.95167334098452</v>
+        <v>53.95167334098453</v>
       </c>
     </row>
     <row r="14">
@@ -898,12 +898,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/cb2a8c5ce41e96fa5c67627dcb1664f0-d1b18ab398d77656a3ff047cf1757851:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/51af4a77717673ea236b55be72541e55-636d4dd2ef15e85b1ed56d98e15eb1ab:getPixels</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/854980a2dd3a85108c02e73f7ac2e3bf-cac1b4d1efe66a8a71a8b3ed46a4f92a:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dcd1ab521999cd2307f401375fe0e52d-4d7f021ee825e254d4c02745e1b63022:getPixels</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -916,7 +916,7 @@
         <v>138.4664414868795</v>
       </c>
       <c r="H14" t="n">
-        <v>85.87387599684602</v>
+        <v>85.87387599684604</v>
       </c>
     </row>
     <row r="15">
@@ -932,16 +932,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/ec4009a1b6a2a49c4e6b74e722b7bbe9-b48eb50fc960cc819bf113d6e7457704:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/32d55edf798aa4396b892753e627c02f-8c15b757dbf8024e3a3c27ccc1feca85:getPixels</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/3e172364029a919a4fe799c0c967eed4-2e17d43648f280d3455521c6e25cfced:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/864a2fe95220aaf1010297891b759c54-5f2ba609849c723cec44c4c71672fa65:getPixels</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>77.73492599169826</v>
+        <v>77.73492599169828</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>150.6175553977369</v>
+        <v>150.617555397737</v>
       </c>
       <c r="H15" t="n">
         <v>101.0203073233969</v>
@@ -968,12 +968,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0e26ed75bb5af84713504dc2895faf80-f67725604b83a50092a751e5c9795c2c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/f93c5e22b3f40bdb74fcff974b69fe20-b251268b035e4f319d39bbd242f6c721:getPixels</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/16efda5a10f67869ede0c36e9441be0c-ab22c52a49f05e9afdaa6137f02c558c:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/6e81e7618206d3dacf3d18907ee8b45a-b2ae5b9055704cd1e53505e322688524:getPixels</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/0aba2e5cfd7dc2d29df156d91638c372-59a16806462c7e4523d8338fa3fae395:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/aa820fcb1895c86aa1c7447c4d303d61-169ded76f4be5eeed84c474229cb9e27:getPixels</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/dd40f087efcdf62babc7f74fd327af4f-bcc672318059850af281c56d32a8b539:getPixels</t>
+          <t>https://earthengine.googleapis.com/v1alpha/projects/earthengine-legacy/thumbnails/7c511802998d6ed3886e02db8fe7c41a-bf5f316a9322c8c4bd486c21690e4c6a:getPixels</t>
         </is>
       </c>
       <c r="E17" t="n">
